--- a/Data/Sample Data/sample_itsm_tickets.xlsx
+++ b/Data/Sample Data/sample_itsm_tickets.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/aaron_hubbart_uipath_com/Documents/Documents/UiPath/Automation Sandbox/###GitHub/CommsMining/Data/Sample Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_8076DDC597D9AECF8A160B0633C181304836AE64" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B27059B7-A91A-4548-8CA9-261F803815FA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-210" yWindow="32400" windowWidth="19335" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -250,8 +256,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +269,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,27 +314,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +383,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -392,6 +417,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -426,9 +452,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,14 +628,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -654,7 +692,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -677,7 +715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -700,7 +738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -723,7 +761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -746,7 +784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -769,7 +807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -792,7 +830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -815,7 +853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -838,7 +876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -860,6 +898,12 @@
       <c r="G11" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
